--- a/Question list.xlsx
+++ b/Question list.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12225" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Arr-1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arr-2" sheetId="2" r:id="rId2"/>
+    <sheet name="2D-Arrays" sheetId="3" r:id="rId3"/>
     <sheet name="BS-1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -17,12 +17,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+  <si>
+    <t>SL No.</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Not Done</t>
+  </si>
+  <si>
+    <t>understand one more tym</t>
+  </si>
+  <si>
+    <t>Linear search in an array</t>
+  </si>
+  <si>
+    <t>Reverse an array</t>
+  </si>
+  <si>
+    <t>find max and min element in an array</t>
+  </si>
+  <si>
+    <t>sort an array of 0, 1,2</t>
+  </si>
+  <si>
+    <t>Move all negative number to one side of array</t>
+  </si>
+  <si>
+    <t>find union and intersection of 2 sorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">program to cyclically rotate an array by one </t>
+  </si>
+  <si>
+    <t xml:space="preserve">find duplicate in an array of N+1 intergers </t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>find the pair that sum to a given value</t>
+  </si>
+  <si>
+    <t>find the triplet that sum to a given value</t>
+  </si>
+  <si>
+    <t>check wherher an array is palindrome or not</t>
+  </si>
+  <si>
+    <t>Minimum swaps required bring elements less equal less equal k together</t>
+  </si>
+  <si>
+    <t>Unique number of occurences - leetcode</t>
+  </si>
+  <si>
+    <t>kadane's algo</t>
+  </si>
+  <si>
+    <t>find common element in 3 sorted arrays</t>
+  </si>
+  <si>
+    <t>find first repeating element in array</t>
+  </si>
+  <si>
+    <t>find first non-repeating element in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find subarray with 0 sum in an array </t>
+  </si>
+  <si>
+    <t>find factorial of a large number</t>
+  </si>
+  <si>
+    <t>minimum platforms problem  - gfg</t>
+  </si>
+  <si>
+    <t>minimise the heights II - gfg</t>
+  </si>
+  <si>
+    <t>majority element problem in array - gfg</t>
+  </si>
+  <si>
+    <t>array subset of another array</t>
+  </si>
   <si>
     <t>S No</t>
-  </si>
-  <si>
-    <t>Questions</t>
   </si>
   <si>
     <t>Implement Binary Search</t>
@@ -60,12 +144,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,58 +159,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,6 +226,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -181,9 +267,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,6 +280,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -202,30 +295,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,43 +311,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,139 +485,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,17 +523,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,6 +573,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -514,167 +620,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -994,17 +1092,166 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="45.1428571428571" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1013,17 +1260,105 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="34.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.57142857142857" customWidth="1"/>
+    <col min="2" max="2" width="45.7142857142857" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1051,21 +1386,29 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:B13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="7:8">
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1076,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1084,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1092,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1100,7 +1443,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1108,7 +1451,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1116,7 +1459,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1124,7 +1467,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1132,7 +1475,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1140,7 +1483,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1148,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Question list.xlsx
+++ b/Question list.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12375"/>
+    <workbookView windowWidth="28125" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Arr-1" sheetId="1" r:id="rId1"/>
     <sheet name="Arr-2" sheetId="2" r:id="rId2"/>
     <sheet name="2D-Arrays" sheetId="3" r:id="rId3"/>
     <sheet name="BS-1" sheetId="4" r:id="rId4"/>
+    <sheet name="Recursion" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>SL No.</t>
   </si>
@@ -137,6 +138,12 @@
   </si>
   <si>
     <t>Search in sorted array of unknown size</t>
+  </si>
+  <si>
+    <t>burst ballon samsung</t>
+  </si>
+  <si>
+    <t>subset sum problem</t>
   </si>
 </sst>
 </file>
@@ -144,10 +151,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -172,40 +179,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +194,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -227,17 +249,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,14 +263,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -265,36 +271,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -335,181 +342,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,32 +527,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -569,6 +550,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,160 +627,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,7 +1101,7 @@
   <sheetPr/>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -1498,4 +1505,31 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>